--- a/BioEX-R4_BOM.xlsx
+++ b/BioEX-R4_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stevens0-my.sharepoint.com/personal/rzgeib_stevens_edu/Documents/RZ/Doctoral Research/x-BioEX/Publication/Data &amp; Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="11_F25DC773A252ABDACC1048CE19DA7C005ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3A45AA5-0D15-43A4-A7B8-381E4D95C7BB}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="11_F25DC773A252ABDACC1048CE19DA7C005ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBE13553-7D86-4B11-ACF1-8D56186D0308}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,7 +652,7 @@
   <dimension ref="A1:D1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="7">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="10">
-        <v>4.99</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -856,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -872,7 +872,7 @@
       </c>
       <c r="D15" s="17">
         <f>SUM(D2:D14)</f>
-        <v>297.45000000000005</v>
+        <v>296.95000000000005</v>
       </c>
     </row>
     <row r="1048575" spans="3:3" x14ac:dyDescent="0.25">
